--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2255828.24181</v>
+        <v>-2258687.412005163</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92.72679982914678</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>92.72679982914678</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>239.8079481415045</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.576470313827206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>93.65342853480905</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>43.04126570744347</v>
+        <v>83.15256630208528</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>111.2254363169658</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>109.8280576942316</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>17.90099283827362</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>138.8163596689182</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>42.01485799043999</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>256.1710784001086</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.7743961109135</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.636469273344</v>
+        <v>11.63646927334399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>69.13208317875564</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.4749820264313</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.0467603356909</v>
+        <v>207.046760335691</v>
       </c>
       <c r="U8" t="n">
-        <v>97.57472699621781</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3818907166712</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29026250281292</v>
+        <v>93.29026250281295</v>
       </c>
       <c r="I9" t="n">
-        <v>21.85817844205279</v>
+        <v>21.85817844205287</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.2468202218443</v>
+        <v>135.2468202218444</v>
       </c>
       <c r="T9" t="n">
         <v>192.2579975353052</v>
       </c>
       <c r="U9" t="n">
-        <v>225.812327709492</v>
+        <v>117.5847916343282</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>143.4674470857602</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3464176409832</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>58.98226553322592</v>
+        <v>103.347916335042</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9188257263405</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>89.67702545775147</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>60.25690685266593</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.1669704749667</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.88538973874937</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>36.22494343870298</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>24.83266606353076</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>217.0250037474722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>215.0116296712233</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3323,13 +3323,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.8776064512096</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="C2" t="n">
-        <v>138.8776064512096</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="D2" t="n">
-        <v>138.8776064512096</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="E2" t="n">
-        <v>138.8776064512096</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="F2" t="n">
-        <v>138.8776064512096</v>
+        <v>381.107857099194</v>
       </c>
       <c r="G2" t="n">
         <v>138.8776064512096</v>
@@ -4358,22 +4358,22 @@
         <v>959.231792566018</v>
       </c>
       <c r="T2" t="n">
-        <v>865.5683583951627</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U2" t="n">
-        <v>623.3381077471784</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="V2" t="n">
-        <v>623.3381077471784</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="W2" t="n">
-        <v>623.3381077471784</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="X2" t="n">
-        <v>381.107857099194</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="Y2" t="n">
-        <v>138.8776064512096</v>
+        <v>717.0015419180337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.983919782909</v>
+        <v>480.0134724344767</v>
       </c>
       <c r="C3" t="n">
-        <v>202.530890501782</v>
+        <v>305.5604431533497</v>
       </c>
       <c r="D3" t="n">
-        <v>202.530890501782</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="E3" t="n">
-        <v>202.530890501782</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="F3" t="n">
-        <v>202.530890501782</v>
+        <v>156.6260334920984</v>
       </c>
       <c r="G3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
         <v>19.18463585132036</v>
@@ -4422,10 +4422,10 @@
         <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
         <v>959.231792566018</v>
@@ -4437,22 +4437,22 @@
         <v>809.7650034286528</v>
       </c>
       <c r="T3" t="n">
-        <v>612.7757075887404</v>
+        <v>809.7650034286528</v>
       </c>
       <c r="U3" t="n">
-        <v>384.6369200999061</v>
+        <v>809.7650034286528</v>
       </c>
       <c r="V3" t="n">
-        <v>384.6369200999061</v>
+        <v>574.6128951969101</v>
       </c>
       <c r="W3" t="n">
-        <v>384.6369200999061</v>
+        <v>574.6128951969101</v>
       </c>
       <c r="X3" t="n">
-        <v>384.6369200999061</v>
+        <v>480.0134724344767</v>
       </c>
       <c r="Y3" t="n">
-        <v>384.6369200999061</v>
+        <v>480.0134724344767</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.1420945824143</v>
+        <v>570.1430429881837</v>
       </c>
       <c r="C4" t="n">
-        <v>249.1420945824143</v>
+        <v>401.2068600602768</v>
       </c>
       <c r="D4" t="n">
-        <v>249.1420945824143</v>
+        <v>251.090220647941</v>
       </c>
       <c r="E4" t="n">
-        <v>249.1420945824143</v>
+        <v>103.1771270655479</v>
       </c>
       <c r="F4" t="n">
-        <v>205.6660686152997</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228357</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
         <v>245.1780356031018</v>
@@ -4513,25 +4513,25 @@
         <v>959.231792566018</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="T4" t="n">
-        <v>733.602595878383</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="U4" t="n">
-        <v>491.3723452303987</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="V4" t="n">
-        <v>249.1420945824143</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="W4" t="n">
-        <v>249.1420945824143</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="X4" t="n">
-        <v>249.1420945824143</v>
+        <v>751.7915078184234</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.1420945824143</v>
+        <v>751.7915078184234</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>419.7330060626392</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C5" t="n">
-        <v>153.3553494954612</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298172</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298172</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298172</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>419.7330060626392</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>419.7330060626392</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="Y5" t="n">
-        <v>419.7330060626392</v>
+        <v>268.4151888127974</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>492.1842811376358</v>
+        <v>888.137410662113</v>
       </c>
       <c r="C6" t="n">
-        <v>317.7312518565088</v>
+        <v>713.684381380986</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7312518565088</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.773709058273</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>888.137410662113</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>888.137410662113</v>
       </c>
       <c r="U6" t="n">
-        <v>914.6369748859054</v>
+        <v>888.137410662113</v>
       </c>
       <c r="V6" t="n">
-        <v>914.6369748859054</v>
+        <v>888.137410662113</v>
       </c>
       <c r="W6" t="n">
-        <v>660.3996181577038</v>
+        <v>888.137410662113</v>
       </c>
       <c r="X6" t="n">
-        <v>660.3996181577038</v>
+        <v>888.137410662113</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.3996181577038</v>
+        <v>888.137410662113</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232.105721540511</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="C7" t="n">
-        <v>232.105721540511</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="D7" t="n">
-        <v>232.105721540511</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="E7" t="n">
-        <v>232.105721540511</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="F7" t="n">
-        <v>232.105721540511</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="G7" t="n">
-        <v>63.53636089551443</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H7" t="n">
-        <v>63.53636089551443</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512191</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>452.8983006840411</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="V7" t="n">
-        <v>452.8983006840411</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="W7" t="n">
-        <v>452.8983006840411</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="X7" t="n">
-        <v>452.8983006840411</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.105721540511</v>
+        <v>460.5172922006041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>945.6927962253658</v>
+        <v>1584.83847328112</v>
       </c>
       <c r="C8" t="n">
-        <v>945.6927962253658</v>
+        <v>1215.875956340708</v>
       </c>
       <c r="D8" t="n">
-        <v>945.6927962253658</v>
+        <v>857.6102577339578</v>
       </c>
       <c r="E8" t="n">
-        <v>945.6927962253658</v>
+        <v>471.8220051357136</v>
       </c>
       <c r="F8" t="n">
-        <v>534.7068914357583</v>
+        <v>60.83610034610602</v>
       </c>
       <c r="G8" t="n">
-        <v>118.9124780283401</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="H8" t="n">
-        <v>118.9124780283401</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="I8" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="J8" t="n">
-        <v>177.9048803425208</v>
+        <v>177.9048803425212</v>
       </c>
       <c r="K8" t="n">
-        <v>421.7153659811036</v>
+        <v>421.7153659811038</v>
       </c>
       <c r="L8" t="n">
-        <v>761.0855944715963</v>
+        <v>761.0855944715961</v>
       </c>
       <c r="M8" t="n">
-        <v>1170.369800753879</v>
+        <v>1170.369800753877</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.890461766105</v>
+        <v>1590.890461766103</v>
       </c>
       <c r="O8" t="n">
-        <v>1974.64093615047</v>
+        <v>1974.640936150467</v>
       </c>
       <c r="P8" t="n">
-        <v>2267.662086797563</v>
+        <v>2267.662086797559</v>
       </c>
       <c r="Q8" t="n">
-        <v>2439.536021171616</v>
+        <v>2439.536021171612</v>
       </c>
       <c r="R8" t="n">
-        <v>2454.1045489546</v>
+        <v>2454.104548954595</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.362142867295</v>
+        <v>2454.104548954595</v>
       </c>
       <c r="T8" t="n">
-        <v>2118.224001114072</v>
+        <v>2244.966407201371</v>
       </c>
       <c r="U8" t="n">
-        <v>2019.663670814862</v>
+        <v>2244.966407201371</v>
       </c>
       <c r="V8" t="n">
-        <v>1688.600783471292</v>
+        <v>1913.9035198578</v>
       </c>
       <c r="W8" t="n">
-        <v>1335.832128201178</v>
+        <v>1913.9035198578</v>
       </c>
       <c r="X8" t="n">
-        <v>1335.832128201178</v>
+        <v>1913.9035198578</v>
       </c>
       <c r="Y8" t="n">
-        <v>945.6927962253658</v>
+        <v>1913.9035198578</v>
       </c>
     </row>
     <row r="9">
@@ -4869,55 +4869,55 @@
         <v>448.6775900244666</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1430320513515</v>
+        <v>302.1430320513516</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3936474890573</v>
+        <v>165.3936474890574</v>
       </c>
       <c r="H9" t="n">
         <v>71.16105910237764</v>
       </c>
       <c r="I9" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="J9" t="n">
-        <v>106.9902148424999</v>
+        <v>106.9902148424996</v>
       </c>
       <c r="K9" t="n">
-        <v>284.1192467202535</v>
+        <v>284.1192467202527</v>
       </c>
       <c r="L9" t="n">
-        <v>568.6136303152641</v>
+        <v>568.6136303152628</v>
       </c>
       <c r="M9" t="n">
-        <v>1156.893558082022</v>
+        <v>1156.89355808202</v>
       </c>
       <c r="N9" t="n">
-        <v>1764.284433948285</v>
+        <v>1764.284433948282</v>
       </c>
       <c r="O9" t="n">
-        <v>2085.167776277104</v>
+        <v>2085.1677762771</v>
       </c>
       <c r="P9" t="n">
-        <v>2323.371881827881</v>
+        <v>2323.371881827877</v>
       </c>
       <c r="Q9" t="n">
-        <v>2432.685821706768</v>
+        <v>2432.685821706763</v>
       </c>
       <c r="R9" t="n">
-        <v>2454.1045489546</v>
+        <v>2454.104548954595</v>
       </c>
       <c r="S9" t="n">
-        <v>2317.491599235565</v>
+        <v>2317.49159923556</v>
       </c>
       <c r="T9" t="n">
-        <v>2123.291601725155</v>
+        <v>2123.291601725151</v>
       </c>
       <c r="U9" t="n">
-        <v>1895.198341412537</v>
+        <v>2004.519084922799</v>
       </c>
       <c r="V9" t="n">
-        <v>1660.046233180795</v>
+        <v>1769.366976691057</v>
       </c>
       <c r="W9" t="n">
         <v>1515.129619962855</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.931367489392</v>
+        <v>662.0284559575728</v>
       </c>
       <c r="C10" t="n">
-        <v>196.9951845614851</v>
+        <v>662.0284559575728</v>
       </c>
       <c r="D10" t="n">
-        <v>196.9951845614851</v>
+        <v>511.911816545237</v>
       </c>
       <c r="E10" t="n">
-        <v>49.08209097909199</v>
+        <v>363.9987229628439</v>
       </c>
       <c r="F10" t="n">
-        <v>49.08209097909199</v>
+        <v>217.1087754649336</v>
       </c>
       <c r="G10" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="H10" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="I10" t="n">
-        <v>49.08209097909199</v>
+        <v>49.08209097909189</v>
       </c>
       <c r="J10" t="n">
-        <v>71.76431095485167</v>
+        <v>71.76431095485142</v>
       </c>
       <c r="K10" t="n">
-        <v>238.8750027912646</v>
+        <v>238.8750027912642</v>
       </c>
       <c r="L10" t="n">
-        <v>508.2455887473331</v>
+        <v>508.2455887473322</v>
       </c>
       <c r="M10" t="n">
-        <v>802.6482261894325</v>
+        <v>802.6482261894313</v>
       </c>
       <c r="N10" t="n">
-        <v>1095.485243357261</v>
+        <v>1095.48524335726</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.951330241949</v>
+        <v>1349.951330241947</v>
       </c>
       <c r="P10" t="n">
-        <v>1544.170345717845</v>
+        <v>1544.170345717843</v>
       </c>
       <c r="Q10" t="n">
-        <v>1595.202444715673</v>
+        <v>1595.20244471567</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.624398722515</v>
+        <v>1490.81061003381</v>
       </c>
       <c r="S10" t="n">
-        <v>1535.624398722515</v>
+        <v>1490.81061003381</v>
       </c>
       <c r="T10" t="n">
-        <v>1312.474069706009</v>
+        <v>1490.81061003381</v>
       </c>
       <c r="U10" t="n">
-        <v>1312.474069706009</v>
+        <v>1490.81061003381</v>
       </c>
       <c r="V10" t="n">
-        <v>1057.789581500122</v>
+        <v>1400.227756036081</v>
       </c>
       <c r="W10" t="n">
-        <v>768.3724114631618</v>
+        <v>1110.81058599912</v>
       </c>
       <c r="X10" t="n">
-        <v>768.3724114631618</v>
+        <v>882.8210351011029</v>
       </c>
       <c r="Y10" t="n">
-        <v>547.5798323196317</v>
+        <v>662.0284559575728</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,19 +5303,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,31 +5519,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,13 +5586,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989557</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684185</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.4270073684185</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.2309080832984</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.5190769254965</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7772127656159</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2421.879582505987</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2239.024748160891</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.354624631591</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.202389540339</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1181.785219503378</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>953.7956686053609</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.0030894618308</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6838,19 +6838,19 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66.78462588923452</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763584</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045377</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>239.3247804770562</v>
+        <v>239.3247804770561</v>
       </c>
       <c r="N9" t="n">
-        <v>234.6815043511839</v>
+        <v>234.6815043511833</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>261.9562417915362</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>167.0680976002069</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>173.1089558044323</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>119.9250632858192</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>11.34683808079613</v>
       </c>
       <c r="V2" t="n">
-        <v>236.8550328449112</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>129.9231525369645</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145491</v>
+        <v>149.257929397166</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.3797823154878</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659247</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232349</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462183</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8807364711621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.66500970697055</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.38044657981618</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>30.15030327141871</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.1126395763558</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1149964.721336632</v>
+        <v>1149964.721336631</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1363559.489815995</v>
+        <v>1363559.489815994</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="11">
@@ -26314,22 +26314,22 @@
         <v>50775.64226829656</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
@@ -26338,19 +26338,19 @@
         <v>60535.99497675043</v>
       </c>
       <c r="K2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982123</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982125</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982126</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26366,13 +26366,13 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395223</v>
+        <v>26462.50553395211</v>
       </c>
       <c r="D3" t="n">
-        <v>363812.9290969828</v>
+        <v>363812.9290969816</v>
       </c>
       <c r="E3" t="n">
-        <v>533304.2467061834</v>
+        <v>533304.2467061849</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944914</v>
+        <v>6152.621870944899</v>
       </c>
       <c r="L3" t="n">
-        <v>107962.0519900376</v>
+        <v>107962.0519900374</v>
       </c>
       <c r="M3" t="n">
-        <v>139350.4287231642</v>
+        <v>139350.4287231646</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178012.5862349587</v>
+        <v>178012.5862349586</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>150392.4003638321</v>
+        <v>150392.4003638325</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181823</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181823</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.9201818182</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="M4" t="n">
         <v>20377.77944491162</v>
       </c>
       <c r="N4" t="n">
+        <v>20377.77944491163</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20377.77944491166</v>
+      </c>
+      <c r="P4" t="n">
         <v>20377.7794449116</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20377.77944491158</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20377.77944491162</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90811.24525228245</v>
+        <v>90811.24525228234</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-840629.0906811244</v>
+        <v>-840989.1736968417</v>
       </c>
       <c r="C6" t="n">
-        <v>-280948.9409057323</v>
+        <v>-280948.9409057322</v>
       </c>
       <c r="D6" t="n">
-        <v>-543438.4419732762</v>
+        <v>-543438.4419732752</v>
       </c>
       <c r="E6" t="n">
-        <v>-586277.7017351583</v>
+        <v>-586312.4396605954</v>
       </c>
       <c r="F6" t="n">
-        <v>-52973.45502897487</v>
+        <v>-53008.19295441049</v>
       </c>
       <c r="G6" t="n">
-        <v>-52973.45502897481</v>
+        <v>-53008.19295441049</v>
       </c>
       <c r="H6" t="n">
-        <v>-52973.45502897487</v>
+        <v>-53008.19295441051</v>
       </c>
       <c r="I6" t="n">
-        <v>-52973.45502897486</v>
+        <v>-53008.19295441052</v>
       </c>
       <c r="J6" t="n">
-        <v>-115717.7658125108</v>
+        <v>-115752.5037379463</v>
       </c>
       <c r="K6" t="n">
-        <v>-59126.07689991975</v>
+        <v>-59160.81482535538</v>
       </c>
       <c r="L6" t="n">
-        <v>-169925.8145490434</v>
+        <v>-169925.8145490432</v>
       </c>
       <c r="M6" t="n">
-        <v>-201314.19128217</v>
+        <v>-201314.1912821704</v>
       </c>
       <c r="N6" t="n">
-        <v>-61963.76255900574</v>
+        <v>-61963.76255900578</v>
       </c>
       <c r="O6" t="n">
-        <v>-61963.76255900571</v>
+        <v>-61963.76255900579</v>
       </c>
       <c r="P6" t="n">
-        <v>-61963.76255900577</v>
+        <v>-61963.76255900576</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>911.9842251455289</v>
+        <v>911.9842251455277</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5261372386499</v>
+        <v>613.5261372386486</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203963</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141375</v>
+        <v>20.57891343141364</v>
       </c>
       <c r="D3" t="n">
-        <v>297.9292113760505</v>
+        <v>297.9292113760495</v>
       </c>
       <c r="E3" t="n">
-        <v>455.9912751961447</v>
+        <v>455.991275196146</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="D4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371425</v>
       </c>
       <c r="E4" t="n">
-        <v>559.182150860998</v>
+        <v>559.1821508609997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371425</v>
       </c>
       <c r="M4" t="n">
-        <v>559.182150860998</v>
+        <v>559.1821508609997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371436</v>
+        <v>349.8122572371425</v>
       </c>
       <c r="M4" t="n">
-        <v>559.182150860998</v>
+        <v>559.1821508609997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>90.89722562522365</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>236.9800092588876</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.9567133360401</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>112.1195566686684</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.26848172084597</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>243.4576053037172</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>272.1023123780302</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0.2515321170040608</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>87.03812783463641</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.13571553436854</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>30.08755210256885</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>56.9594455525671</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.9276324845243</v>
+        <v>301.9276324845244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>69.13208317875581</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.4749820264314</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>153.4776244522754</v>
+        <v>251.0523514484932</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>108.2275360751638</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>108.2275360751594</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3464176409832</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.6055237829752</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.36565080181595</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.3563724696939</v>
+        <v>195.356372469694</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9188257263405</v>
       </c>
       <c r="U10" t="n">
         <v>286.2293259900831</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>162.4606178660765</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>5.600166059136216e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.09361997531194e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29275,19 +29275,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30043,13 +30043,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.666268241791068</v>
+        <v>3.666268241791063</v>
       </c>
       <c r="H8" t="n">
-        <v>37.54716963124279</v>
+        <v>37.54716963124274</v>
       </c>
       <c r="I8" t="n">
-        <v>141.3438063916503</v>
+        <v>141.3438063916501</v>
       </c>
       <c r="J8" t="n">
-        <v>311.169934186715</v>
+        <v>311.1699341867146</v>
       </c>
       <c r="K8" t="n">
-        <v>466.3630688617309</v>
+        <v>466.3630688617304</v>
       </c>
       <c r="L8" t="n">
-        <v>578.5646255664444</v>
+        <v>578.5646255664437</v>
       </c>
       <c r="M8" t="n">
-        <v>643.7646234113963</v>
+        <v>643.7646234113955</v>
       </c>
       <c r="N8" t="n">
-        <v>654.1814080533852</v>
+        <v>654.1814080533844</v>
       </c>
       <c r="O8" t="n">
-        <v>617.7249532240753</v>
+        <v>617.7249532240745</v>
       </c>
       <c r="P8" t="n">
-        <v>527.2139560048582</v>
+        <v>527.2139560048576</v>
       </c>
       <c r="Q8" t="n">
-        <v>395.9157245957155</v>
+        <v>395.9157245957149</v>
       </c>
       <c r="R8" t="n">
-        <v>230.3012224434084</v>
+        <v>230.3012224434081</v>
       </c>
       <c r="S8" t="n">
-        <v>83.54508755981405</v>
+        <v>83.54508755981394</v>
       </c>
       <c r="T8" t="n">
-        <v>16.04908922844041</v>
+        <v>16.04908922844039</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2933014593432854</v>
+        <v>0.293301459343285</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.96162644653944</v>
+        <v>1.961626446539437</v>
       </c>
       <c r="H9" t="n">
-        <v>18.94518173368354</v>
+        <v>18.94518173368351</v>
       </c>
       <c r="I9" t="n">
-        <v>67.53845440936229</v>
+        <v>67.5384544093622</v>
       </c>
       <c r="J9" t="n">
-        <v>185.3306810741495</v>
+        <v>185.3306810741492</v>
       </c>
       <c r="K9" t="n">
-        <v>316.7596529922919</v>
+        <v>316.7596529922915</v>
       </c>
       <c r="L9" t="n">
-        <v>425.9224440172586</v>
+        <v>425.922444017258</v>
       </c>
       <c r="M9" t="n">
-        <v>497.0314027043132</v>
+        <v>497.0314027043125</v>
       </c>
       <c r="N9" t="n">
-        <v>510.1863449707992</v>
+        <v>510.1863449707986</v>
       </c>
       <c r="O9" t="n">
-        <v>466.7208326553726</v>
+        <v>466.7208326553721</v>
       </c>
       <c r="P9" t="n">
-        <v>374.5846150413777</v>
+        <v>374.5846150413773</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.3998951758064</v>
+        <v>250.3998951758061</v>
       </c>
       <c r="R9" t="n">
-        <v>121.7929121807558</v>
+        <v>121.7929121807556</v>
       </c>
       <c r="S9" t="n">
-        <v>36.43635088199351</v>
+        <v>36.43635088199347</v>
       </c>
       <c r="T9" t="n">
-        <v>7.906731159516422</v>
+        <v>7.906731159516412</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1290543714828579</v>
+        <v>0.1290543714828578</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.644561717475544</v>
+        <v>1.644561717475542</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62164872446439</v>
+        <v>14.62164872446437</v>
       </c>
       <c r="I10" t="n">
-        <v>49.45645601281</v>
+        <v>49.45645601280994</v>
       </c>
       <c r="J10" t="n">
-        <v>116.2705134255209</v>
+        <v>116.2705134255208</v>
       </c>
       <c r="K10" t="n">
-        <v>191.0681704485222</v>
+        <v>191.068170448522</v>
       </c>
       <c r="L10" t="n">
-        <v>244.5014757054095</v>
+        <v>244.5014757054092</v>
       </c>
       <c r="M10" t="n">
-        <v>257.7925244948254</v>
+        <v>257.7925244948251</v>
       </c>
       <c r="N10" t="n">
-        <v>251.6627944569622</v>
+        <v>251.6627944569619</v>
       </c>
       <c r="O10" t="n">
-        <v>232.4513234846342</v>
+        <v>232.4513234846339</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9022644481329</v>
+        <v>198.9022644481327</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.7096179969749</v>
+        <v>137.7096179969747</v>
       </c>
       <c r="R10" t="n">
-        <v>73.94547504212761</v>
+        <v>73.94547504212751</v>
       </c>
       <c r="S10" t="n">
-        <v>28.66022556727833</v>
+        <v>28.66022556727829</v>
       </c>
       <c r="T10" t="n">
-        <v>7.026763701940958</v>
+        <v>7.026763701940949</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08970336640775703</v>
+        <v>0.08970336640775692</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145779</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286976</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>454.5879800486403</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34790,13 +34790,13 @@
         <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>227.9081740394976</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612445</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>126.2075456122947</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1240296600287</v>
+        <v>130.1240296600283</v>
       </c>
       <c r="K8" t="n">
-        <v>246.2732178167504</v>
+        <v>246.2732178167498</v>
       </c>
       <c r="L8" t="n">
-        <v>342.7982105964572</v>
+        <v>342.7982105964565</v>
       </c>
       <c r="M8" t="n">
-        <v>413.4183901841236</v>
+        <v>413.4183901841228</v>
       </c>
       <c r="N8" t="n">
-        <v>424.7683444567943</v>
+        <v>424.7683444567935</v>
       </c>
       <c r="O8" t="n">
-        <v>387.6267418023886</v>
+        <v>387.6267418023878</v>
       </c>
       <c r="P8" t="n">
-        <v>295.9809602495887</v>
+        <v>295.980960249588</v>
       </c>
       <c r="Q8" t="n">
-        <v>173.610034721266</v>
+        <v>173.6100347212655</v>
       </c>
       <c r="R8" t="n">
-        <v>14.71568462927627</v>
+        <v>14.71568462927596</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>58.49305440748276</v>
+        <v>58.4930544074825</v>
       </c>
       <c r="K9" t="n">
-        <v>178.9182140179329</v>
+        <v>178.9182140179325</v>
       </c>
       <c r="L9" t="n">
-        <v>287.3680642373844</v>
+        <v>287.3680642373839</v>
       </c>
       <c r="M9" t="n">
-        <v>594.222149259351</v>
+        <v>594.2221492593503</v>
       </c>
       <c r="N9" t="n">
-        <v>613.5261372386499</v>
+        <v>613.5261372386486</v>
       </c>
       <c r="O9" t="n">
-        <v>324.1245882109282</v>
+        <v>324.1245882109276</v>
       </c>
       <c r="P9" t="n">
-        <v>240.6102076270475</v>
+        <v>240.610207627047</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.4181210897848</v>
+        <v>110.4181210897845</v>
       </c>
       <c r="R9" t="n">
-        <v>21.63507802811264</v>
+        <v>21.63507802811249</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.91133330884816</v>
+        <v>22.91133330884801</v>
       </c>
       <c r="K10" t="n">
-        <v>168.7986786226394</v>
+        <v>168.7986786226391</v>
       </c>
       <c r="L10" t="n">
-        <v>272.0915009657257</v>
+        <v>272.0915009657253</v>
       </c>
       <c r="M10" t="n">
-        <v>297.376401456666</v>
+        <v>297.3764014566657</v>
       </c>
       <c r="N10" t="n">
-        <v>295.7949668361908</v>
+        <v>295.7949668361905</v>
       </c>
       <c r="O10" t="n">
-        <v>257.0364513986739</v>
+        <v>257.0364513986736</v>
       </c>
       <c r="P10" t="n">
-        <v>196.1808237130264</v>
+        <v>196.1808237130262</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.54757474528047</v>
+        <v>51.5475747452803</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312445</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066793</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>311.9917356041959</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
